--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/handback-status.xlsx
@@ -358,7 +358,7 @@
     <t>2016-01-27 05:45:55</t>
   </si>
   <si>
-    <t>2016-01-27 06:15:57</t>
+    <t>2016-02-22 08:58:10</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/handback-status.xlsx
@@ -358,7 +358,7 @@
     <t>2016-01-27 05:45:55</t>
   </si>
   <si>
-    <t>2016-02-22 08:58:10</t>
+    <t>2016-02-22 08:59:05</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationOrg/hyperVTest/live/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperVTest/live/handback-status.xlsx
@@ -358,7 +358,7 @@
     <t>2016-01-27 05:45:55</t>
   </si>
   <si>
-    <t>2016-02-22 08:59:05</t>
+    <t>2016-02-22 09:00:01</t>
   </si>
 </sst>
 </file>
